--- a/FILES/Batch 37/MML - Spring 2022/Spring_2022_MML_A1_A2_HW_SW_Project_Lab_CO_PO.xlsx
+++ b/FILES/Batch 37/MML - Spring 2022/Spring_2022_MML_A1_A2_HW_SW_Project_Lab_CO_PO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Premier\IEB 2023\Working Files\Batch 37\MML - Spring 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Premier\IEB 2023\excel_import\FILES\Batch 37\MML - Spring 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196143FC-6E30-44A5-8486-4145FD1C9974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40116A7E-30E3-43D9-8C50-6745C95CE5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="195">
   <si>
     <t>Course Code</t>
   </si>
@@ -1067,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,42 +1209,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,6 +1256,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1423,9 +1435,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CO3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CO4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1570,7 +1579,7 @@
             <c:strRef>
               <c:f>MML_A1_Spring2022!$AB$14:$AE$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>CO1</c:v>
                 </c:pt>
@@ -1579,9 +1588,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CO3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CO4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1786,9 +1792,6 @@
                 <c:pt idx="2">
                   <c:v>CO3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>CO4</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1932,7 +1935,7 @@
             <c:strRef>
               <c:f>MML_A1_Spring2022!$AB$14:$AE$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>CO1</c:v>
                 </c:pt>
@@ -1941,9 +1944,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CO3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CO4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3440,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:AU53"/>
   <sheetViews>
-    <sheetView topLeftCell="S10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12:AU17"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ14" sqref="AQ14:AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3496,30 +3496,30 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="V1" s="57" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="V1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="59"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="69"/>
     </row>
     <row r="2" spans="1:47" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3885,81 +3885,81 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:47" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="68" t="s">
+      <c r="N12" s="58"/>
+      <c r="O12" s="56" t="s">
         <v>19</v>
       </c>
       <c r="P12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="65" t="s">
+      <c r="Q12" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="55" t="s">
+      <c r="V12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
       <c r="AA12" s="40"/>
-      <c r="AB12" s="60" t="s">
+      <c r="AB12" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AH12" s="55" t="s">
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AH12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AN12" s="55" t="s">
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AN12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AT12" s="51" t="s">
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AT12" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="AU12" s="52"/>
+      <c r="AU12" s="75"/>
     </row>
     <row r="13" spans="1:47" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="48" t="s">
         <v>55</v>
       </c>
@@ -3985,42 +3985,42 @@
         <v>52</v>
       </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="77"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="68"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="23"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="66"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="54"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
       <c r="AA13" s="40"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="54"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="77"/>
     </row>
     <row r="14" spans="1:47" ht="115.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
@@ -4046,14 +4046,14 @@
         <v>14</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="77"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="68"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7" t="s">
         <v>11</v>
@@ -4064,7 +4064,7 @@
       <c r="S14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="66"/>
+      <c r="T14" s="54"/>
       <c r="V14" s="43" t="s">
         <v>3</v>
       </c>
@@ -4074,12 +4074,8 @@
       <c r="X14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
       <c r="AA14" s="37"/>
       <c r="AB14" s="30" t="s">
         <v>3</v>
@@ -4090,12 +4086,8 @@
       <c r="AD14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AE14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF14" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
       <c r="AH14" s="43" t="s">
         <v>3</v>
       </c>
@@ -4120,12 +4112,8 @@
       <c r="AP14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AQ14" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR14" s="44" t="s">
-        <v>33</v>
-      </c>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
       <c r="AT14" s="30" t="s">
         <v>36</v>
       </c>
@@ -4134,8 +4122,8 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
@@ -4161,14 +4149,14 @@
         <v>20</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="77"/>
+      <c r="L15" s="65"/>
       <c r="M15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="68"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="27" t="s">
         <v>15</v>
       </c>
@@ -4181,7 +4169,7 @@
       <c r="S15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="66"/>
+      <c r="T15" s="54"/>
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
       <c r="X15" s="31"/>
@@ -4205,8 +4193,8 @@
       <c r="AU15" s="38"/>
     </row>
     <row r="16" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8543,14 +8531,14 @@
       </c>
     </row>
     <row r="51" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V51" s="56" t="s">
+      <c r="V51" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
       <c r="AB51" s="11">
         <f>COUNT(AB17:AB49)</f>
         <v>33</v>
@@ -8567,14 +8555,14 @@
       <c r="AF51" s="11"/>
     </row>
     <row r="52" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V52" s="56" t="s">
+      <c r="V52" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
       <c r="AB52" s="11">
         <f>COUNTIF(AB17:AB49,"&gt;=50%")</f>
         <v>27</v>
@@ -8591,14 +8579,14 @@
       <c r="AF52" s="11"/>
     </row>
     <row r="53" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V53" s="56" t="s">
+      <c r="V53" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
       <c r="AB53" s="35">
         <f>AB52/AB51</f>
         <v>0.81818181818181823</v>
@@ -8616,6 +8604,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AN12:AR13"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="V1:AH1"/>
+    <mergeCell ref="V12:Z13"/>
+    <mergeCell ref="AB12:AF13"/>
+    <mergeCell ref="AH12:AL13"/>
+    <mergeCell ref="I1:O1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="T12:T15"/>
     <mergeCell ref="Q13:S13"/>
@@ -8627,16 +8625,6 @@
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V1:AH1"/>
-    <mergeCell ref="V12:Z13"/>
-    <mergeCell ref="AB12:AF13"/>
-    <mergeCell ref="AH12:AL13"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AN12:AR13"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="V52:AA52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8648,8 +8636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D54161-AD57-4791-B6CF-71559D0B2E9B}">
   <dimension ref="A1:AU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z13" workbookViewId="0">
-      <selection activeCell="AW16" sqref="AW16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8689,6 +8677,8 @@
     <col min="42" max="42" width="7" customWidth="1"/>
     <col min="43" max="43" width="6.33203125" customWidth="1"/>
     <col min="44" max="44" width="5.44140625" customWidth="1"/>
+    <col min="46" max="46" width="9.5546875" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8704,30 +8694,30 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="V1" s="57" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="V1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="59"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="69"/>
     </row>
     <row r="2" spans="1:47" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -9093,81 +9083,81 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:47" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="68" t="s">
+      <c r="N12" s="58"/>
+      <c r="O12" s="56" t="s">
         <v>19</v>
       </c>
       <c r="P12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="65" t="s">
+      <c r="Q12" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="55" t="s">
+      <c r="V12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
       <c r="AA12" s="40"/>
-      <c r="AB12" s="60" t="s">
+      <c r="AB12" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AH12" s="55" t="s">
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AH12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AN12" s="55" t="s">
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AN12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AT12" s="51" t="s">
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AT12" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="AU12" s="52"/>
+      <c r="AU12" s="80"/>
     </row>
     <row r="13" spans="1:47" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="48" t="s">
         <v>55</v>
       </c>
@@ -9193,42 +9183,42 @@
         <v>52</v>
       </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="77"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="68"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="23"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="66"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="54"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
       <c r="AA13" s="40"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="54"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="82"/>
     </row>
     <row r="14" spans="1:47" ht="115.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
@@ -9254,14 +9244,14 @@
         <v>14</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="77"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="68"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7" t="s">
         <v>11</v>
@@ -9272,7 +9262,7 @@
       <c r="S14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="66"/>
+      <c r="T14" s="54"/>
       <c r="V14" s="43" t="s">
         <v>3</v>
       </c>
@@ -9311,12 +9301,8 @@
       <c r="AJ14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AK14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL14" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
       <c r="AN14" s="30" t="s">
         <v>3</v>
       </c>
@@ -9326,12 +9312,8 @@
       <c r="AP14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AQ14" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR14" s="44" t="s">
-        <v>33</v>
-      </c>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
       <c r="AT14" s="30" t="s">
         <v>36</v>
       </c>
@@ -9340,8 +9322,8 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
@@ -9367,14 +9349,14 @@
         <v>20</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="77"/>
+      <c r="L15" s="65"/>
       <c r="M15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="68"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="10" t="s">
         <v>15</v>
       </c>
@@ -9387,7 +9369,7 @@
       <c r="S15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="66"/>
+      <c r="T15" s="54"/>
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
       <c r="X15" s="31"/>
@@ -9411,8 +9393,8 @@
       <c r="AU15" s="38"/>
     </row>
     <row r="16" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -13756,14 +13738,14 @@
       </c>
     </row>
     <row r="51" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V51" s="56" t="s">
+      <c r="V51" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
       <c r="AB51" s="11">
         <f>COUNT(AB17:AB49)</f>
         <v>33</v>
@@ -13776,21 +13758,18 @@
         <f>COUNT(AD17:AD49)</f>
         <v>33</v>
       </c>
-      <c r="AE51" s="11">
-        <f>COUNT(AE17:AE49)</f>
-        <v>0</v>
-      </c>
+      <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
     </row>
     <row r="52" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V52" s="56" t="s">
+      <c r="V52" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
       <c r="AB52" s="11">
         <f>COUNTIF(AB17:AB49,"&gt;=50%")</f>
         <v>30</v>
@@ -13803,21 +13782,18 @@
         <f>COUNTIF(AD17:AD49,"&gt;=50%")</f>
         <v>26</v>
       </c>
-      <c r="AE52" s="11">
-        <f>COUNTIF(AE17:AE49,"&gt;=50%")</f>
-        <v>0</v>
-      </c>
+      <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
     </row>
     <row r="53" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V53" s="56" t="s">
+      <c r="V53" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
       <c r="AB53" s="35">
         <f>AB52/AB51</f>
         <v>0.90909090909090906</v>
@@ -13830,14 +13806,16 @@
         <f>AD52/AD51</f>
         <v>0.78787878787878785</v>
       </c>
-      <c r="AE53" s="35" t="e">
-        <f t="shared" ref="AE53" si="13">AE52/AE51</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE53" s="35"/>
       <c r="AF53" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="V12:Z13"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AN12:AR13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -13854,13 +13832,9 @@
     <mergeCell ref="T12:T15"/>
     <mergeCell ref="AB12:AF13"/>
     <mergeCell ref="AH12:AL13"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="V12:Z13"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AN12:AR13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>